--- a/Documents/2. 주간보고서/2. 주간업무/2주차/주간업무일지_2주차_김건승.xlsx
+++ b/Documents/2. 주간보고서/2. 주간업무/2주차/주간업무일지_2주차_김건승.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1주차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF1151-7027-4AD2-9405-7D9D309EFF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624DD940-01FB-482E-B2FA-9821A19E4A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="165" windowWidth="14445" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14625" yWindow="555" windowWidth="13905" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주간업무일지" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t xml:space="preserve">세부 업무 계획 </t>
   </si>
@@ -92,20 +92,12 @@
   </si>
   <si>
     <t>이번 주 업무 계획 (해야할 것)</t>
-  </si>
-  <si>
-    <t>2024년 1월 22일 ~ 1월 26일 (1월 4째주)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>기능적 요구사항 정의</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2024.1.23</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>산출목록 정의</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -118,15 +110,55 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2024.1.26</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>김건승</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>조원</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 작성완료</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.1.31</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기능적요구사항정의</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.1.29</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 유스케이스다이어그램</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 UI작성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원들의 제작완료시 바로 작업시작</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항 발생시 즉시 수정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 1월 29일 ~ 2월 2일 (2월 1째주)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -235,6 +267,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -520,15 +559,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +679,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -685,6 +730,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -692,9 +749,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -778,18 +832,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{3851256E-E602-4BA7-B8D2-470A75B1CD17}"/>
     <cellStyle name="하이퍼링크" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1087,7 +1157,7 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1115,37 +1185,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="2.85" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="J2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+      <c r="L2" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
       <c r="Q2" s="15"/>
       <c r="S2" s="18" t="s">
         <v>15</v>
@@ -1160,71 +1230,71 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="J3" s="43" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="J3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="15"/>
-      <c r="S3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="W3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="43" t="s">
+      <c r="B4" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
       <c r="Q4" s="15"/>
-      <c r="S4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="W4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="W4" s="42"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="C5" s="3"/>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="15"/>
-      <c r="S5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="W5" s="42"/>
+      <c r="S5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="W5" s="43"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="4"/>
@@ -1300,223 +1370,239 @@
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="28"/>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="C10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="C11" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
     </row>
     <row r="12" spans="1:23" ht="18" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="C12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="C13" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="O13" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="59"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="62"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A17" s="9"/>
@@ -1545,239 +1631,235 @@
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="30"/>
-      <c r="O18" s="60" t="s">
+      <c r="O18" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="62"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="66"/>
       <c r="R18" s="28"/>
-      <c r="S18" s="48" t="s">
+      <c r="S18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="C19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85"/>
+      <c r="O19" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="70"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
+      <c r="C20" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="35"/>
-      <c r="O20" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="85"/>
+      <c r="O20" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
+      <c r="C21" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="66"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="70"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="54"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="59"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="62"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
     </row>
     <row r="26" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A26" s="7"/>
@@ -1835,253 +1917,261 @@
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
+      <c r="B28" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
     </row>
     <row r="29" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
+      <c r="B30" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="87"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
     </row>
     <row r="31" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
     </row>
     <row r="33" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
     </row>
     <row r="35" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
     </row>
     <row r="37" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A37" s="20"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
     </row>
     <row r="38" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A38" s="9"/>
@@ -2101,154 +2191,154 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
+      <c r="W38" s="83"/>
     </row>
     <row r="39" spans="1:23" ht="18" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="80" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="80"/>
+      <c r="R39" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="80"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="80"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
     </row>
     <row r="40" spans="1:23" ht="18" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="81"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81"/>
-      <c r="W42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
     </row>
     <row r="43" spans="1:23" ht="18" customHeight="1">
       <c r="A43" s="9"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="86"/>
     </row>
     <row r="44" spans="1:23" ht="18" customHeight="1">
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="73"/>
-      <c r="W44" s="73"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="94">
     <mergeCell ref="P44:W44"/>
     <mergeCell ref="E37:Q37"/>
     <mergeCell ref="B39:Q39"/>
@@ -2274,6 +2364,8 @@
     <mergeCell ref="E29:Q29"/>
     <mergeCell ref="E30:Q30"/>
     <mergeCell ref="E31:Q31"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B30:C31"/>
     <mergeCell ref="S23:W23"/>
     <mergeCell ref="S24:W24"/>
     <mergeCell ref="S25:W25"/>

--- a/Documents/2. 주간보고서/2. 주간업무/2주차/주간업무일지_2주차_김건승.xlsx
+++ b/Documents/2. 주간보고서/2. 주간업무/2주차/주간업무일지_2주차_김건승.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624DD940-01FB-482E-B2FA-9821A19E4A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B1C9A2-39B0-4287-96E2-AC7943C45BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14625" yWindow="555" windowWidth="13905" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주간업무일지" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t xml:space="preserve">세부 업무 계획 </t>
   </si>
@@ -138,14 +138,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1. 유스케이스다이어그램</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구분석서 UI작성</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -158,7 +150,28 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2024년 1월 29일 ~ 2월 2일 (2월 1째주)</t>
+    <t>2024년 1월 22일 ~ 1월 26일 (1월 4째주)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.2.02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 다이어그램 작성완료</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 UI작성완료</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.1.30</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스
+다이어그램</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,6 +695,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -802,6 +818,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -817,9 +851,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -833,28 +873,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1156,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1185,37 +1204,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="2.85" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="J2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
       <c r="Q2" s="15"/>
       <c r="S2" s="18" t="s">
         <v>15</v>
@@ -1230,71 +1249,71 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="J3" s="44" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="J3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
       <c r="Q3" s="15"/>
-      <c r="S3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="S3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="J4" s="44" t="s">
+      <c r="B4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="J4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
       <c r="Q4" s="15"/>
-      <c r="S4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="W4" s="42"/>
+      <c r="S4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="W4" s="43"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="C5" s="3"/>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
       <c r="Q5" s="15"/>
-      <c r="S5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="W5" s="43"/>
+      <c r="S5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="W5" s="44"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="4"/>
@@ -1370,239 +1389,239 @@
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="50" t="s">
+      <c r="O9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
       <c r="R9" s="28"/>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="35"/>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="35"/>
-      <c r="O11" s="53" t="s">
+      <c r="O11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
     </row>
     <row r="12" spans="1:23" ht="18" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="35"/>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="57" t="s">
+      <c r="O13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="62"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
     </row>
     <row r="17" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A17" s="9"/>
@@ -1631,235 +1650,239 @@
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="30"/>
-      <c r="O18" s="64" t="s">
+      <c r="O18" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
       <c r="R18" s="28"/>
-      <c r="S18" s="49" t="s">
+      <c r="S18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="68" t="s">
+      <c r="O19" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+      <c r="C20" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="35"/>
-      <c r="O20" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59"/>
+      <c r="O20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+      <c r="C21" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="36"/>
-      <c r="O21" s="57" t="s">
+      <c r="O21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="70"/>
+      <c r="C22" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="59"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="62"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="63"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
     </row>
     <row r="26" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A26" s="7"/>
@@ -1917,261 +1940,261 @@
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="87"/>
+      <c r="B28" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="82"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
+      <c r="E28" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
     </row>
     <row r="29" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A29" s="20"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="87"/>
+      <c r="B30" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="82"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
+      <c r="E30" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
     </row>
     <row r="31" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
     </row>
     <row r="33" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
     </row>
     <row r="35" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
     </row>
     <row r="37" spans="1:23" s="23" customFormat="1" ht="15.6" customHeight="1">
       <c r="A37" s="20"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
     </row>
     <row r="38" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A38" s="9"/>
@@ -2191,151 +2214,151 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="83"/>
-      <c r="W38" s="83"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="92"/>
     </row>
     <row r="39" spans="1:23" ht="18" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="84" t="s">
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="84"/>
-      <c r="T39" s="84"/>
-      <c r="U39" s="84"/>
-      <c r="V39" s="84"/>
-      <c r="W39" s="84"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="93"/>
     </row>
     <row r="40" spans="1:23" ht="18" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="85"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="85"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
     </row>
     <row r="43" spans="1:23" ht="18" customHeight="1">
       <c r="A43" s="9"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
     </row>
     <row r="44" spans="1:23" ht="18" customHeight="1">
-      <c r="P44" s="77"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="77"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="84"/>
+      <c r="W44" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="94">
